--- a/xlsx/比亚迪汽车_intext.xlsx
+++ b/xlsx/比亚迪汽车_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="524">
   <si>
     <t>比亚迪汽车</t>
   </si>
@@ -29,7 +29,7 @@
     <t>比亚迪</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_比亚迪汽车</t>
+    <t>政策_政策_混合动力车辆_比亚迪汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E4%BA%A4%E6%98%93%E6%89%80</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%82%B3%E7%A6%8F</t>
   </si>
   <si>
-    <t>王傳福</t>
+    <t>王传福</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E6%A5%AD</t>
   </si>
   <si>
-    <t>汽車業</t>
+    <t>汽车业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A7%E8%82%A1%E5%85%AC%E5%8F%B8</t>
@@ -95,9 +95,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E</t>
   </si>
   <si>
@@ -125,7 +122,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%B4%8B%E9%9B%BB%E6%A9%9F</t>
   </si>
   <si>
-    <t>三洋電機</t>
+    <t>三洋电机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%B0%BC</t>
@@ -155,13 +152,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E7%A5%BF</t>
   </si>
   <si>
-    <t>李祿</t>
+    <t>李禄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E4%BA%9E%E8%BF%AAF3DM</t>
   </si>
   <si>
-    <t>比亞迪F3DM</t>
+    <t>比亚迪F3DM</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E4%BA%9A%E8%BF%AAK9</t>
@@ -185,7 +182,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A6%E8%BC%AA%E5%A2%9E%E5%A3%93</t>
   </si>
   <si>
-    <t>渦輪增壓</t>
+    <t>涡轮增压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%B8%E5%86%85%E7%9B%B4%E5%96%B7</t>
@@ -281,7 +278,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E4%BA%9E%E8%BF%AAK9A</t>
   </si>
   <si>
-    <t>比亞迪K9A</t>
+    <t>比亚迪K9A</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E4%BA%9A%E8%BF%AAK8</t>
@@ -383,7 +380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%88%A9%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>吉利汽車</t>
+    <t>吉利汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%BF%E5%9F%8E%E6%B1%BD%E8%BD%A6</t>
@@ -419,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A5%94%E9%87%8D%E5%9E%8B%E6%B1%BD%E8%BB%8A%E9%9B%86%E5%9C%98%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>北奔重型汽車集團有限公司</t>
+    <t>北奔重型汽车集团有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E8%92%99%E5%8F%A4%E5%8C%97%E6%96%B9%E9%87%8D%E5%9E%8B%E6%B1%BD%E8%BD%A6</t>
@@ -437,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%81%8B%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>大運集團</t>
+    <t>大运集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%BB%BA%E6%B1%BD%E8%BD%A6</t>
@@ -455,7 +452,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E9%87%8E%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>綠野汽車</t>
+    <t>绿野汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%A9%AC%E6%B1%BD%E8%BD%A6</t>
@@ -467,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E8%B1%B9%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>黑豹汽車</t>
+    <t>黑豹汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E9%93%83%E6%B1%BD%E8%BD%A6</t>
@@ -479,7 +476,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%85%B6%E9%88%B4%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>慶鈴汽車</t>
+    <t>庆铃汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8C%E7%8E%AF%E6%B1%BD%E8%BD%A6</t>
@@ -503,13 +500,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E8%8F%B1%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>五菱汽車</t>
+    <t>五菱汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%B9%B4%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>青年汽車</t>
+    <t>青年汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%98%9F%E5%AE%A2%E8%BD%A6</t>
@@ -527,13 +524,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E9%80%9A%E5%AE%A2%E8%BB%8A</t>
   </si>
   <si>
-    <t>宇通客車</t>
+    <t>宇通客车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%9A%E5%AE%A2%E8%BB%8A</t>
   </si>
   <si>
-    <t>中通客車</t>
+    <t>中通客车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%BE%99%E5%AE%A2%E8%BD%A6</t>
@@ -827,7 +824,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%B0%E6%9F%B4%E5%8B%95%E5%8A%9B</t>
   </si>
   <si>
-    <t>濰柴動力</t>
+    <t>潍柴动力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%87%E6%8E%A7%E8%82%A1</t>
@@ -917,7 +914,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E8%8F%AF%E5%8D%80_(%E6%B7%B1%E5%9C%B3%E5%B8%82)</t>
   </si>
   <si>
-    <t>龍華區 (深圳市)</t>
+    <t>龙华区 (深圳市)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%99%E5%B2%97%E5%8C%BA</t>
@@ -941,13 +938,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B6%E5%AE%89%E7%B8%A3</t>
   </si>
   <si>
-    <t>寶安縣</t>
+    <t>宝安县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E5%83%91%E5%9F%8E</t>
   </si>
   <si>
-    <t>華僑城</t>
+    <t>华侨城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%B9%8B%E7%AA%97_(%E6%B7%B1%E5%9C%B3)</t>
@@ -965,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%A6%E7%B9%A1%E4%B8%AD%E8%8F%AF%E6%B0%91%E4%BF%97%E6%9D%91</t>
   </si>
   <si>
-    <t>錦繡中華民俗村</t>
+    <t>锦绣中华民俗村</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E9%83%A8%E5%8D%8E%E4%BE%A8%E5%9F%8E</t>
@@ -1019,7 +1016,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E4%B8%AD%E6%96%87%E5%A4%A7%E5%AD%B8%EF%BC%88%E6%B7%B1%E5%9C%B3%EF%BC%89</t>
   </si>
   <si>
-    <t>香港中文大學（深圳）</t>
+    <t>香港中文大学（深圳）</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%B0%94%E6%BB%A8%E5%B7%A5%E4%B8%9A%E5%A4%A7%E5%AD%A6%E6%B7%B1%E5%9C%B3%E7%A0%94%E7%A9%B6%E7%94%9F%E9%99%A2</t>
@@ -1043,7 +1040,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%9C%B3%E8%81%B7%E6%A5%AD%E6%8A%80%E8%A1%93%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>深圳職業技術學院</t>
+    <t>深圳职业技术学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%9C%B3%E4%BF%A1%E6%81%AF%E8%81%8C%E4%B8%9A%E6%8A%80%E6%9C%AF%E5%AD%A6%E9%99%A2</t>
@@ -1103,7 +1100,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E6%BD%A4%E6%80%A1%E5%AF%B6%E9%A3%B2%E6%96%99</t>
   </si>
   <si>
-    <t>華潤怡寶飲料</t>
+    <t>华润怡宝饮料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%BA%E4%B8%B0%E9%80%9F%E8%BF%90</t>
@@ -1121,7 +1118,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B4%BB%E6%B5%B7%E7%A7%91%E6%8A%80%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>鴻海科技集團</t>
+    <t>鸿海科技集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%BD%B3</t>
@@ -1157,7 +1154,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%85%B7%E6%B4%BE%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>酷派集團</t>
+    <t>酷派集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9B%E7%BB%B4%E9%9B%86%E5%9B%A2</t>
@@ -1175,7 +1172,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%AE%89%E5%9C%8B%E9%9A%9B%E9%87%91%E8%9E%8D%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>平安國際金融中心</t>
+    <t>平安国际金融中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E5%9F%BA100</t>
@@ -1187,13 +1184,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E8%88%88%E5%BB%A3%E5%A0%B4</t>
   </si>
   <si>
-    <t>信興廣場</t>
+    <t>信兴广场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%A0%BC%E5%BB%A3%E5%A0%B4</t>
   </si>
   <si>
-    <t>賽格廣場</t>
+    <t>赛格广场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9B%E5%95%86%E9%93%B6%E8%A1%8C%E5%A4%A7%E5%8E%A6</t>
@@ -1205,7 +1202,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E6%A8%9E%E7%B4%90%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>信息樞紐大廈</t>
+    <t>信息枢纽大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%9C%B3%E8%AF%81%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
@@ -1241,19 +1238,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E9%96%80%E5%95%86%E6%A5%AD%E5%8D%80</t>
   </si>
   <si>
-    <t>東門商業區</t>
+    <t>东门商业区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%9C%B3%E8%90%AC%E8%B1%A1%E5%9F%8E</t>
   </si>
   <si>
-    <t>深圳萬象城</t>
+    <t>深圳万象城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E5%9F%BA%E7%99%BE%E7%B4%8D%E7%A9%BA%E9%96%93</t>
   </si>
   <si>
-    <t>京基百納空間</t>
+    <t>京基百纳空间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%9C%E8%8D%9F%E5%9F%8E</t>
@@ -1277,7 +1274,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%A3%E5%9F%8E%E6%96%B0%E5%A4%A9%E5%9C%B0</t>
   </si>
   <si>
-    <t>連城新天地</t>
+    <t>连城新天地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/COCO_Park</t>
@@ -1295,7 +1292,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%9C%B3%E9%BE%8D%E5%B4%97%E8%90%AC%E7%A7%91%E5%BB%A3%E5%A0%B4</t>
   </si>
   <si>
-    <t>深圳龍崗萬科廣場</t>
+    <t>深圳龙岗万科广场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%9C%B3%E4%BD%93%E8%82%B2%E5%9C%BA</t>
@@ -1325,7 +1322,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%9C%B3%E5%B3%B6%E5%B6%BC</t>
   </si>
   <si>
-    <t>深圳島嶼</t>
+    <t>深圳岛屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%A7%E6%A1%90%E5%B1%B1</t>
@@ -1343,7 +1340,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%AE%E8%8A%B1%E5%B1%B1_(%E6%B7%B1%E5%9C%B3)</t>
   </si>
   <si>
-    <t>蓮花山 (深圳)</t>
+    <t>莲花山 (深圳)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8A%E5%8F%B0%E5%B1%B1</t>
@@ -1355,13 +1352,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%86%E6%9E%B6%E5%B1%B1_(%E6%B7%B1%E5%9C%B3)</t>
   </si>
   <si>
-    <t>筆架山 (深圳)</t>
+    <t>笔架山 (深圳)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E5%B1%B1_(%E6%B7%B1%E5%9C%B3)</t>
   </si>
   <si>
-    <t>鳳凰山 (深圳)</t>
+    <t>凤凰山 (深圳)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%9C%B3%E5%AE%9D%E5%AE%89%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -1439,13 +1436,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9B%87%E5%8F%A3%E5%AE%A2%E9%81%8B%E7%A2%BC%E9%A0%AD</t>
   </si>
   <si>
-    <t>蛇口客運碼頭</t>
+    <t>蛇口客运码头</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%B0%B8%E7%A2%BC%E9%A0%AD</t>
   </si>
   <si>
-    <t>福永碼頭</t>
+    <t>福永码头</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%9C%B3%E6%B8%AF</t>
@@ -1481,13 +1478,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%B1%E6%B5%B7%E5%A4%A7%E9%81%93</t>
   </si>
   <si>
-    <t>濱海大道</t>
+    <t>滨海大道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%92%B0%E5%A4%A7%E9%81%93</t>
   </si>
   <si>
-    <t>北環大道</t>
+    <t>北环大道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%99%E5%B2%97%E5%A4%A7%E9%81%93</t>
@@ -1505,7 +1502,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%9C%B3%E7%81%A3%E5%8F%A3%E5%B2%B8</t>
   </si>
   <si>
-    <t>深圳灣口岸</t>
+    <t>深圳湾口岸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%94%B0%E5%8F%A3%E5%B2%B8</t>
@@ -1517,31 +1514,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%B4%97%E5%8F%A3%E5%B2%B8</t>
   </si>
   <si>
-    <t>皇崗口岸</t>
+    <t>皇岗口岸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%B9%96%E5%8F%A3%E5%B2%B8</t>
   </si>
   <si>
-    <t>羅湖口岸</t>
+    <t>罗湖口岸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E9%8C%A6%E6%B8%A1%E5%8F%A3%E5%B2%B8</t>
   </si>
   <si>
-    <t>文錦渡口岸</t>
+    <t>文锦渡口岸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%AE%E5%A1%98/%E9%A6%99%E5%9C%92%E5%9C%8D%E5%8F%A3%E5%B2%B8</t>
   </si>
   <si>
-    <t>蓮塘/香園圍口岸</t>
+    <t>莲塘/香园围口岸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E9%A0%AD%E8%A7%92%E5%8F%A3%E5%B2%B8</t>
   </si>
   <si>
-    <t>沙頭角口岸</t>
+    <t>沙头角口岸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%9C%B3%E6%96%87%E5%8C%96%E8%AE%BE%E6%96%BD%E5%88%97%E8%A1%A8</t>
@@ -1565,13 +1562,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E5%B4%97%E5%AE%A2%E5%AE%B6%E6%B0%91%E4%BF%97%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>龍崗客家民俗博物館</t>
+    <t>龙岗客家民俗博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%9C%B3%E6%9B%B8%E5%9F%8E</t>
   </si>
   <si>
-    <t>深圳書城</t>
+    <t>深圳书城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8A%AC%E6%9D%91</t>
@@ -1583,13 +1580,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%9C%B3%E9%A6%99%E6%B8%AF%E5%9F%8E%E5%B8%82%E5%BB%BA%E7%AF%89%E9%9B%99%E5%9F%8E%E9%9B%99%E5%B9%B4%E5%B1%95</t>
   </si>
   <si>
-    <t>深圳香港城市建築雙城雙年展</t>
+    <t>深圳香港城市建筑双城双年展</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B5%AA%E6%99%82%E5%B0%9A%E5%89%B5%E6%84%8F%E5%9F%8E</t>
   </si>
   <si>
-    <t>大浪時尚創意城</t>
+    <t>大浪时尚创意城</t>
   </si>
 </sst>
 </file>
@@ -2308,7 +2305,7 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
         <v>13</v>
@@ -2363,10 +2360,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
         <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -2392,10 +2389,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
         <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -2421,10 +2418,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
         <v>31</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -2479,10 +2476,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
         <v>33</v>
-      </c>
-      <c r="F19" t="s">
-        <v>34</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -2508,10 +2505,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
         <v>35</v>
-      </c>
-      <c r="F20" t="s">
-        <v>36</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -2537,10 +2534,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
         <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>38</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2566,10 +2563,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
         <v>39</v>
-      </c>
-      <c r="F22" t="s">
-        <v>40</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2595,10 +2592,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" t="s">
         <v>41</v>
-      </c>
-      <c r="F23" t="s">
-        <v>42</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2624,10 +2621,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
         <v>43</v>
-      </c>
-      <c r="F24" t="s">
-        <v>44</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2653,10 +2650,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
         <v>45</v>
-      </c>
-      <c r="F25" t="s">
-        <v>46</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2682,10 +2679,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
         <v>47</v>
-      </c>
-      <c r="F26" t="s">
-        <v>48</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2711,10 +2708,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s">
         <v>49</v>
-      </c>
-      <c r="F27" t="s">
-        <v>50</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2740,10 +2737,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" t="s">
         <v>51</v>
-      </c>
-      <c r="F28" t="s">
-        <v>52</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2769,10 +2766,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" t="s">
         <v>53</v>
-      </c>
-      <c r="F29" t="s">
-        <v>54</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2798,10 +2795,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" t="s">
         <v>55</v>
-      </c>
-      <c r="F30" t="s">
-        <v>56</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2827,10 +2824,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
         <v>57</v>
-      </c>
-      <c r="F31" t="s">
-        <v>58</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2856,10 +2853,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
         <v>59</v>
-      </c>
-      <c r="F32" t="s">
-        <v>60</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -2885,10 +2882,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
         <v>61</v>
-      </c>
-      <c r="F33" t="s">
-        <v>62</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2914,10 +2911,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
         <v>63</v>
-      </c>
-      <c r="F34" t="s">
-        <v>64</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2943,10 +2940,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
         <v>65</v>
-      </c>
-      <c r="F35" t="s">
-        <v>66</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2972,10 +2969,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" t="s">
         <v>47</v>
-      </c>
-      <c r="F36" t="s">
-        <v>48</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -3001,10 +2998,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" t="s">
         <v>67</v>
-      </c>
-      <c r="F37" t="s">
-        <v>68</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3030,10 +3027,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" t="s">
         <v>69</v>
-      </c>
-      <c r="F38" t="s">
-        <v>70</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3059,10 +3056,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" t="s">
         <v>71</v>
-      </c>
-      <c r="F39" t="s">
-        <v>72</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -3088,10 +3085,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" t="s">
         <v>73</v>
-      </c>
-      <c r="F40" t="s">
-        <v>74</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3117,10 +3114,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s">
         <v>75</v>
-      </c>
-      <c r="F41" t="s">
-        <v>76</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3146,10 +3143,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" t="s">
         <v>77</v>
-      </c>
-      <c r="F42" t="s">
-        <v>78</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -3175,10 +3172,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" t="s">
         <v>79</v>
-      </c>
-      <c r="F43" t="s">
-        <v>80</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -3204,10 +3201,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" t="s">
         <v>81</v>
-      </c>
-      <c r="F44" t="s">
-        <v>82</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3233,10 +3230,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" t="s">
         <v>83</v>
-      </c>
-      <c r="F45" t="s">
-        <v>84</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3262,10 +3259,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" t="s">
         <v>51</v>
-      </c>
-      <c r="F46" t="s">
-        <v>52</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -3291,10 +3288,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" t="s">
         <v>85</v>
-      </c>
-      <c r="F47" t="s">
-        <v>86</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3320,10 +3317,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" t="s">
         <v>49</v>
-      </c>
-      <c r="F48" t="s">
-        <v>50</v>
       </c>
       <c r="G48" t="n">
         <v>5</v>
@@ -3349,10 +3346,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>86</v>
+      </c>
+      <c r="F49" t="s">
         <v>87</v>
-      </c>
-      <c r="F49" t="s">
-        <v>88</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3378,10 +3375,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" t="s">
         <v>89</v>
-      </c>
-      <c r="F50" t="s">
-        <v>90</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3407,10 +3404,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>90</v>
+      </c>
+      <c r="F51" t="s">
         <v>91</v>
-      </c>
-      <c r="F51" t="s">
-        <v>92</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -3436,10 +3433,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" t="s">
         <v>93</v>
-      </c>
-      <c r="F52" t="s">
-        <v>94</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -3465,10 +3462,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" t="s">
         <v>95</v>
-      </c>
-      <c r="F53" t="s">
-        <v>96</v>
       </c>
       <c r="G53" t="n">
         <v>5</v>
@@ -3494,10 +3491,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" t="s">
         <v>97</v>
-      </c>
-      <c r="F54" t="s">
-        <v>98</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -3523,10 +3520,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" t="s">
         <v>99</v>
-      </c>
-      <c r="F55" t="s">
-        <v>100</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -3552,10 +3549,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>100</v>
+      </c>
+      <c r="F56" t="s">
         <v>101</v>
-      </c>
-      <c r="F56" t="s">
-        <v>102</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3581,10 +3578,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>102</v>
+      </c>
+      <c r="F57" t="s">
         <v>103</v>
-      </c>
-      <c r="F57" t="s">
-        <v>104</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3610,10 +3607,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F58" t="s">
         <v>105</v>
-      </c>
-      <c r="F58" t="s">
-        <v>106</v>
       </c>
       <c r="G58" t="n">
         <v>5</v>
@@ -3639,10 +3636,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>106</v>
+      </c>
+      <c r="F59" t="s">
         <v>107</v>
-      </c>
-      <c r="F59" t="s">
-        <v>108</v>
       </c>
       <c r="G59" t="n">
         <v>4</v>
@@ -3668,10 +3665,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>108</v>
+      </c>
+      <c r="F60" t="s">
         <v>109</v>
-      </c>
-      <c r="F60" t="s">
-        <v>110</v>
       </c>
       <c r="G60" t="n">
         <v>5</v>
@@ -3697,10 +3694,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>110</v>
+      </c>
+      <c r="F61" t="s">
         <v>111</v>
-      </c>
-      <c r="F61" t="s">
-        <v>112</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3726,10 +3723,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>112</v>
+      </c>
+      <c r="F62" t="s">
         <v>113</v>
-      </c>
-      <c r="F62" t="s">
-        <v>114</v>
       </c>
       <c r="G62" t="n">
         <v>8</v>
@@ -3755,10 +3752,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>114</v>
+      </c>
+      <c r="F63" t="s">
         <v>115</v>
-      </c>
-      <c r="F63" t="s">
-        <v>116</v>
       </c>
       <c r="G63" t="n">
         <v>7</v>
@@ -3784,10 +3781,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>116</v>
+      </c>
+      <c r="F64" t="s">
         <v>117</v>
-      </c>
-      <c r="F64" t="s">
-        <v>118</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3813,10 +3810,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>118</v>
+      </c>
+      <c r="F65" t="s">
         <v>119</v>
-      </c>
-      <c r="F65" t="s">
-        <v>120</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3842,10 +3839,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>120</v>
+      </c>
+      <c r="F66" t="s">
         <v>121</v>
-      </c>
-      <c r="F66" t="s">
-        <v>122</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3871,10 +3868,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>122</v>
+      </c>
+      <c r="F67" t="s">
         <v>123</v>
-      </c>
-      <c r="F67" t="s">
-        <v>124</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3900,10 +3897,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>124</v>
+      </c>
+      <c r="F68" t="s">
         <v>125</v>
-      </c>
-      <c r="F68" t="s">
-        <v>126</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3929,10 +3926,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>126</v>
+      </c>
+      <c r="F69" t="s">
         <v>127</v>
-      </c>
-      <c r="F69" t="s">
-        <v>128</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3958,10 +3955,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>128</v>
+      </c>
+      <c r="F70" t="s">
         <v>129</v>
-      </c>
-      <c r="F70" t="s">
-        <v>130</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3987,10 +3984,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>130</v>
+      </c>
+      <c r="F71" t="s">
         <v>131</v>
-      </c>
-      <c r="F71" t="s">
-        <v>132</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4016,10 +4013,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>132</v>
+      </c>
+      <c r="F72" t="s">
         <v>133</v>
-      </c>
-      <c r="F72" t="s">
-        <v>134</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4045,10 +4042,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>134</v>
+      </c>
+      <c r="F73" t="s">
         <v>135</v>
-      </c>
-      <c r="F73" t="s">
-        <v>136</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4074,10 +4071,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>136</v>
+      </c>
+      <c r="F74" t="s">
         <v>137</v>
-      </c>
-      <c r="F74" t="s">
-        <v>138</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4103,10 +4100,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>138</v>
+      </c>
+      <c r="F75" t="s">
         <v>139</v>
-      </c>
-      <c r="F75" t="s">
-        <v>140</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4132,10 +4129,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>140</v>
+      </c>
+      <c r="F76" t="s">
         <v>141</v>
-      </c>
-      <c r="F76" t="s">
-        <v>142</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4161,10 +4158,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>142</v>
+      </c>
+      <c r="F77" t="s">
         <v>143</v>
-      </c>
-      <c r="F77" t="s">
-        <v>144</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4190,10 +4187,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>144</v>
+      </c>
+      <c r="F78" t="s">
         <v>145</v>
-      </c>
-      <c r="F78" t="s">
-        <v>146</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4219,10 +4216,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>146</v>
+      </c>
+      <c r="F79" t="s">
         <v>147</v>
-      </c>
-      <c r="F79" t="s">
-        <v>148</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4248,10 +4245,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>148</v>
+      </c>
+      <c r="F80" t="s">
         <v>149</v>
-      </c>
-      <c r="F80" t="s">
-        <v>150</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4277,10 +4274,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>150</v>
+      </c>
+      <c r="F81" t="s">
         <v>151</v>
-      </c>
-      <c r="F81" t="s">
-        <v>152</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4306,10 +4303,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>152</v>
+      </c>
+      <c r="F82" t="s">
         <v>153</v>
-      </c>
-      <c r="F82" t="s">
-        <v>154</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4335,10 +4332,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>154</v>
+      </c>
+      <c r="F83" t="s">
         <v>155</v>
-      </c>
-      <c r="F83" t="s">
-        <v>156</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4364,10 +4361,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>156</v>
+      </c>
+      <c r="F84" t="s">
         <v>157</v>
-      </c>
-      <c r="F84" t="s">
-        <v>158</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4393,10 +4390,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>158</v>
+      </c>
+      <c r="F85" t="s">
         <v>159</v>
-      </c>
-      <c r="F85" t="s">
-        <v>160</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4422,10 +4419,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>160</v>
+      </c>
+      <c r="F86" t="s">
         <v>161</v>
-      </c>
-      <c r="F86" t="s">
-        <v>162</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4451,10 +4448,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>162</v>
+      </c>
+      <c r="F87" t="s">
         <v>163</v>
-      </c>
-      <c r="F87" t="s">
-        <v>164</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4480,10 +4477,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>164</v>
+      </c>
+      <c r="F88" t="s">
         <v>165</v>
-      </c>
-      <c r="F88" t="s">
-        <v>166</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4509,10 +4506,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>166</v>
+      </c>
+      <c r="F89" t="s">
         <v>167</v>
-      </c>
-      <c r="F89" t="s">
-        <v>168</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4538,10 +4535,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>168</v>
+      </c>
+      <c r="F90" t="s">
         <v>169</v>
-      </c>
-      <c r="F90" t="s">
-        <v>170</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4567,10 +4564,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>170</v>
+      </c>
+      <c r="F91" t="s">
         <v>171</v>
-      </c>
-      <c r="F91" t="s">
-        <v>172</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4596,10 +4593,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>172</v>
+      </c>
+      <c r="F92" t="s">
         <v>173</v>
-      </c>
-      <c r="F92" t="s">
-        <v>174</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4625,10 +4622,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>174</v>
+      </c>
+      <c r="F93" t="s">
         <v>175</v>
-      </c>
-      <c r="F93" t="s">
-        <v>176</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4654,10 +4651,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>176</v>
+      </c>
+      <c r="F94" t="s">
         <v>177</v>
-      </c>
-      <c r="F94" t="s">
-        <v>178</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4683,10 +4680,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>178</v>
+      </c>
+      <c r="F95" t="s">
         <v>179</v>
-      </c>
-      <c r="F95" t="s">
-        <v>180</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4712,10 +4709,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>180</v>
+      </c>
+      <c r="F96" t="s">
         <v>181</v>
-      </c>
-      <c r="F96" t="s">
-        <v>182</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4741,10 +4738,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>182</v>
+      </c>
+      <c r="F97" t="s">
         <v>183</v>
-      </c>
-      <c r="F97" t="s">
-        <v>184</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4770,10 +4767,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>184</v>
+      </c>
+      <c r="F98" t="s">
         <v>185</v>
-      </c>
-      <c r="F98" t="s">
-        <v>186</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4799,10 +4796,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>186</v>
+      </c>
+      <c r="F99" t="s">
         <v>187</v>
-      </c>
-      <c r="F99" t="s">
-        <v>188</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4828,10 +4825,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>188</v>
+      </c>
+      <c r="F100" t="s">
         <v>189</v>
-      </c>
-      <c r="F100" t="s">
-        <v>190</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4857,10 +4854,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>190</v>
+      </c>
+      <c r="F101" t="s">
         <v>191</v>
-      </c>
-      <c r="F101" t="s">
-        <v>192</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4886,10 +4883,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>192</v>
+      </c>
+      <c r="F102" t="s">
         <v>193</v>
-      </c>
-      <c r="F102" t="s">
-        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4915,10 +4912,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>194</v>
+      </c>
+      <c r="F103" t="s">
         <v>195</v>
-      </c>
-      <c r="F103" t="s">
-        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4944,10 +4941,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>196</v>
+      </c>
+      <c r="F104" t="s">
         <v>197</v>
-      </c>
-      <c r="F104" t="s">
-        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4973,10 +4970,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F105" t="s">
         <v>199</v>
-      </c>
-      <c r="F105" t="s">
-        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5002,10 +4999,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>200</v>
+      </c>
+      <c r="F106" t="s">
         <v>201</v>
-      </c>
-      <c r="F106" t="s">
-        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5031,10 +5028,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>202</v>
+      </c>
+      <c r="F107" t="s">
         <v>203</v>
-      </c>
-      <c r="F107" t="s">
-        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5060,10 +5057,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>204</v>
+      </c>
+      <c r="F108" t="s">
         <v>205</v>
-      </c>
-      <c r="F108" t="s">
-        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5089,10 +5086,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>206</v>
+      </c>
+      <c r="F109" t="s">
         <v>207</v>
-      </c>
-      <c r="F109" t="s">
-        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5118,10 +5115,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>208</v>
+      </c>
+      <c r="F110" t="s">
         <v>209</v>
-      </c>
-      <c r="F110" t="s">
-        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5147,10 +5144,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>210</v>
+      </c>
+      <c r="F111" t="s">
         <v>211</v>
-      </c>
-      <c r="F111" t="s">
-        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5176,10 +5173,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>212</v>
+      </c>
+      <c r="F112" t="s">
         <v>213</v>
-      </c>
-      <c r="F112" t="s">
-        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5205,10 +5202,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>214</v>
+      </c>
+      <c r="F113" t="s">
         <v>215</v>
-      </c>
-      <c r="F113" t="s">
-        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5234,10 +5231,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>216</v>
+      </c>
+      <c r="F114" t="s">
         <v>217</v>
-      </c>
-      <c r="F114" t="s">
-        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5263,10 +5260,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>218</v>
+      </c>
+      <c r="F115" t="s">
         <v>219</v>
-      </c>
-      <c r="F115" t="s">
-        <v>220</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5292,10 +5289,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>220</v>
+      </c>
+      <c r="F116" t="s">
         <v>221</v>
-      </c>
-      <c r="F116" t="s">
-        <v>222</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5321,10 +5318,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>222</v>
+      </c>
+      <c r="F117" t="s">
         <v>223</v>
-      </c>
-      <c r="F117" t="s">
-        <v>224</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5350,10 +5347,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>224</v>
+      </c>
+      <c r="F118" t="s">
         <v>225</v>
-      </c>
-      <c r="F118" t="s">
-        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5379,10 +5376,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>226</v>
+      </c>
+      <c r="F119" t="s">
         <v>227</v>
-      </c>
-      <c r="F119" t="s">
-        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5408,10 +5405,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>228</v>
+      </c>
+      <c r="F120" t="s">
         <v>229</v>
-      </c>
-      <c r="F120" t="s">
-        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5437,10 +5434,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>230</v>
+      </c>
+      <c r="F121" t="s">
         <v>231</v>
-      </c>
-      <c r="F121" t="s">
-        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5466,10 +5463,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F122" t="s">
         <v>233</v>
-      </c>
-      <c r="F122" t="s">
-        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5495,10 +5492,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>234</v>
+      </c>
+      <c r="F123" t="s">
         <v>235</v>
-      </c>
-      <c r="F123" t="s">
-        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5524,10 +5521,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>236</v>
+      </c>
+      <c r="F124" t="s">
         <v>237</v>
-      </c>
-      <c r="F124" t="s">
-        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5553,10 +5550,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>238</v>
+      </c>
+      <c r="F125" t="s">
         <v>239</v>
-      </c>
-      <c r="F125" t="s">
-        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5582,10 +5579,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>240</v>
+      </c>
+      <c r="F126" t="s">
         <v>241</v>
-      </c>
-      <c r="F126" t="s">
-        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5611,10 +5608,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>242</v>
+      </c>
+      <c r="F127" t="s">
         <v>243</v>
-      </c>
-      <c r="F127" t="s">
-        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5640,10 +5637,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>244</v>
+      </c>
+      <c r="F128" t="s">
         <v>245</v>
-      </c>
-      <c r="F128" t="s">
-        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5669,10 +5666,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>246</v>
+      </c>
+      <c r="F129" t="s">
         <v>247</v>
-      </c>
-      <c r="F129" t="s">
-        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5698,10 +5695,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>248</v>
+      </c>
+      <c r="F130" t="s">
         <v>249</v>
-      </c>
-      <c r="F130" t="s">
-        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5727,10 +5724,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>250</v>
+      </c>
+      <c r="F131" t="s">
         <v>251</v>
-      </c>
-      <c r="F131" t="s">
-        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5756,10 +5753,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>222</v>
+      </c>
+      <c r="F132" t="s">
         <v>223</v>
-      </c>
-      <c r="F132" t="s">
-        <v>224</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5785,10 +5782,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>252</v>
+      </c>
+      <c r="F133" t="s">
         <v>253</v>
-      </c>
-      <c r="F133" t="s">
-        <v>254</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5814,10 +5811,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>254</v>
+      </c>
+      <c r="F134" t="s">
         <v>255</v>
-      </c>
-      <c r="F134" t="s">
-        <v>256</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5843,10 +5840,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>256</v>
+      </c>
+      <c r="F135" t="s">
         <v>257</v>
-      </c>
-      <c r="F135" t="s">
-        <v>258</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5872,10 +5869,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>258</v>
+      </c>
+      <c r="F136" t="s">
         <v>259</v>
-      </c>
-      <c r="F136" t="s">
-        <v>260</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5901,10 +5898,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>260</v>
+      </c>
+      <c r="F137" t="s">
         <v>261</v>
-      </c>
-      <c r="F137" t="s">
-        <v>262</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5930,10 +5927,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>262</v>
+      </c>
+      <c r="F138" t="s">
         <v>263</v>
-      </c>
-      <c r="F138" t="s">
-        <v>264</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5959,10 +5956,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>264</v>
+      </c>
+      <c r="F139" t="s">
         <v>265</v>
-      </c>
-      <c r="F139" t="s">
-        <v>266</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5988,10 +5985,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>266</v>
+      </c>
+      <c r="F140" t="s">
         <v>267</v>
-      </c>
-      <c r="F140" t="s">
-        <v>268</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6017,10 +6014,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>268</v>
+      </c>
+      <c r="F141" t="s">
         <v>269</v>
-      </c>
-      <c r="F141" t="s">
-        <v>270</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6046,10 +6043,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>270</v>
+      </c>
+      <c r="F142" t="s">
         <v>271</v>
-      </c>
-      <c r="F142" t="s">
-        <v>272</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6075,10 +6072,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>272</v>
+      </c>
+      <c r="F143" t="s">
         <v>273</v>
-      </c>
-      <c r="F143" t="s">
-        <v>274</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -6104,10 +6101,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>274</v>
+      </c>
+      <c r="F144" t="s">
         <v>275</v>
-      </c>
-      <c r="F144" t="s">
-        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>3</v>
@@ -6133,10 +6130,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>276</v>
+      </c>
+      <c r="F145" t="s">
         <v>277</v>
-      </c>
-      <c r="F145" t="s">
-        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -6162,10 +6159,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>278</v>
+      </c>
+      <c r="F146" t="s">
         <v>279</v>
-      </c>
-      <c r="F146" t="s">
-        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -6191,10 +6188,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>280</v>
+      </c>
+      <c r="F147" t="s">
         <v>281</v>
-      </c>
-      <c r="F147" t="s">
-        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>5</v>
@@ -6220,10 +6217,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>282</v>
+      </c>
+      <c r="F148" t="s">
         <v>283</v>
-      </c>
-      <c r="F148" t="s">
-        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6249,10 +6246,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>284</v>
+      </c>
+      <c r="F149" t="s">
         <v>285</v>
-      </c>
-      <c r="F149" t="s">
-        <v>286</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -6278,10 +6275,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>286</v>
+      </c>
+      <c r="F150" t="s">
         <v>287</v>
-      </c>
-      <c r="F150" t="s">
-        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>3</v>
@@ -6307,10 +6304,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>288</v>
+      </c>
+      <c r="F151" t="s">
         <v>289</v>
-      </c>
-      <c r="F151" t="s">
-        <v>290</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6336,10 +6333,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>290</v>
+      </c>
+      <c r="F152" t="s">
         <v>291</v>
-      </c>
-      <c r="F152" t="s">
-        <v>292</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6365,10 +6362,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>292</v>
+      </c>
+      <c r="F153" t="s">
         <v>293</v>
-      </c>
-      <c r="F153" t="s">
-        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6394,10 +6391,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>294</v>
+      </c>
+      <c r="F154" t="s">
         <v>295</v>
-      </c>
-      <c r="F154" t="s">
-        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>3</v>
@@ -6423,10 +6420,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>296</v>
+      </c>
+      <c r="F155" t="s">
         <v>297</v>
-      </c>
-      <c r="F155" t="s">
-        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6452,10 +6449,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>298</v>
+      </c>
+      <c r="F156" t="s">
         <v>299</v>
-      </c>
-      <c r="F156" t="s">
-        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6481,10 +6478,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>300</v>
+      </c>
+      <c r="F157" t="s">
         <v>301</v>
-      </c>
-      <c r="F157" t="s">
-        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6510,10 +6507,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>302</v>
+      </c>
+      <c r="F158" t="s">
         <v>303</v>
-      </c>
-      <c r="F158" t="s">
-        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -6539,10 +6536,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>304</v>
+      </c>
+      <c r="F159" t="s">
         <v>305</v>
-      </c>
-      <c r="F159" t="s">
-        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6568,10 +6565,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>306</v>
+      </c>
+      <c r="F160" t="s">
         <v>307</v>
-      </c>
-      <c r="F160" t="s">
-        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6597,10 +6594,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>308</v>
+      </c>
+      <c r="F161" t="s">
         <v>309</v>
-      </c>
-      <c r="F161" t="s">
-        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -6626,10 +6623,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>310</v>
+      </c>
+      <c r="F162" t="s">
         <v>311</v>
-      </c>
-      <c r="F162" t="s">
-        <v>312</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6655,10 +6652,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>312</v>
+      </c>
+      <c r="F163" t="s">
         <v>313</v>
-      </c>
-      <c r="F163" t="s">
-        <v>314</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6684,10 +6681,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>314</v>
+      </c>
+      <c r="F164" t="s">
         <v>315</v>
-      </c>
-      <c r="F164" t="s">
-        <v>316</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6713,10 +6710,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>316</v>
+      </c>
+      <c r="F165" t="s">
         <v>317</v>
-      </c>
-      <c r="F165" t="s">
-        <v>318</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6742,10 +6739,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>318</v>
+      </c>
+      <c r="F166" t="s">
         <v>319</v>
-      </c>
-      <c r="F166" t="s">
-        <v>320</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6771,10 +6768,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>320</v>
+      </c>
+      <c r="F167" t="s">
         <v>321</v>
-      </c>
-      <c r="F167" t="s">
-        <v>322</v>
       </c>
       <c r="G167" t="n">
         <v>3</v>
@@ -6800,10 +6797,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>322</v>
+      </c>
+      <c r="F168" t="s">
         <v>323</v>
-      </c>
-      <c r="F168" t="s">
-        <v>324</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6829,10 +6826,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>324</v>
+      </c>
+      <c r="F169" t="s">
         <v>325</v>
-      </c>
-      <c r="F169" t="s">
-        <v>326</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6858,10 +6855,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>326</v>
+      </c>
+      <c r="F170" t="s">
         <v>327</v>
-      </c>
-      <c r="F170" t="s">
-        <v>328</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6887,10 +6884,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>328</v>
+      </c>
+      <c r="F171" t="s">
         <v>329</v>
-      </c>
-      <c r="F171" t="s">
-        <v>330</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6916,10 +6913,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>330</v>
+      </c>
+      <c r="F172" t="s">
         <v>331</v>
-      </c>
-      <c r="F172" t="s">
-        <v>332</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6945,10 +6942,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>332</v>
+      </c>
+      <c r="F173" t="s">
         <v>333</v>
-      </c>
-      <c r="F173" t="s">
-        <v>334</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6974,10 +6971,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>334</v>
+      </c>
+      <c r="F174" t="s">
         <v>335</v>
-      </c>
-      <c r="F174" t="s">
-        <v>336</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7003,10 +7000,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>336</v>
+      </c>
+      <c r="F175" t="s">
         <v>337</v>
-      </c>
-      <c r="F175" t="s">
-        <v>338</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7032,10 +7029,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>338</v>
+      </c>
+      <c r="F176" t="s">
         <v>339</v>
-      </c>
-      <c r="F176" t="s">
-        <v>340</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7061,10 +7058,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>340</v>
+      </c>
+      <c r="F177" t="s">
         <v>341</v>
-      </c>
-      <c r="F177" t="s">
-        <v>342</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7090,10 +7087,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>342</v>
+      </c>
+      <c r="F178" t="s">
         <v>343</v>
-      </c>
-      <c r="F178" t="s">
-        <v>344</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7119,10 +7116,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>344</v>
+      </c>
+      <c r="F179" t="s">
         <v>345</v>
-      </c>
-      <c r="F179" t="s">
-        <v>346</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7148,10 +7145,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>346</v>
+      </c>
+      <c r="F180" t="s">
         <v>347</v>
-      </c>
-      <c r="F180" t="s">
-        <v>348</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7177,10 +7174,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>348</v>
+      </c>
+      <c r="F181" t="s">
         <v>349</v>
-      </c>
-      <c r="F181" t="s">
-        <v>350</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7206,10 +7203,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>350</v>
+      </c>
+      <c r="F182" t="s">
         <v>351</v>
-      </c>
-      <c r="F182" t="s">
-        <v>352</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7235,10 +7232,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>352</v>
+      </c>
+      <c r="F183" t="s">
         <v>353</v>
-      </c>
-      <c r="F183" t="s">
-        <v>354</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7264,10 +7261,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>354</v>
+      </c>
+      <c r="F184" t="s">
         <v>355</v>
-      </c>
-      <c r="F184" t="s">
-        <v>356</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7293,10 +7290,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>356</v>
+      </c>
+      <c r="F185" t="s">
         <v>357</v>
-      </c>
-      <c r="F185" t="s">
-        <v>358</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -7322,10 +7319,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>358</v>
+      </c>
+      <c r="F186" t="s">
         <v>359</v>
-      </c>
-      <c r="F186" t="s">
-        <v>360</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7351,10 +7348,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>360</v>
+      </c>
+      <c r="F187" t="s">
         <v>361</v>
-      </c>
-      <c r="F187" t="s">
-        <v>362</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7380,10 +7377,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>362</v>
+      </c>
+      <c r="F188" t="s">
         <v>363</v>
-      </c>
-      <c r="F188" t="s">
-        <v>364</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7409,10 +7406,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>364</v>
+      </c>
+      <c r="F189" t="s">
         <v>365</v>
-      </c>
-      <c r="F189" t="s">
-        <v>366</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7438,10 +7435,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>366</v>
+      </c>
+      <c r="F190" t="s">
         <v>367</v>
-      </c>
-      <c r="F190" t="s">
-        <v>368</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7467,10 +7464,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>368</v>
+      </c>
+      <c r="F191" t="s">
         <v>369</v>
-      </c>
-      <c r="F191" t="s">
-        <v>370</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7496,10 +7493,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>370</v>
+      </c>
+      <c r="F192" t="s">
         <v>371</v>
-      </c>
-      <c r="F192" t="s">
-        <v>372</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7525,10 +7522,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>372</v>
+      </c>
+      <c r="F193" t="s">
         <v>373</v>
-      </c>
-      <c r="F193" t="s">
-        <v>374</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7554,10 +7551,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>374</v>
+      </c>
+      <c r="F194" t="s">
         <v>375</v>
-      </c>
-      <c r="F194" t="s">
-        <v>376</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7583,10 +7580,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>376</v>
+      </c>
+      <c r="F195" t="s">
         <v>377</v>
-      </c>
-      <c r="F195" t="s">
-        <v>378</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7612,10 +7609,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>378</v>
+      </c>
+      <c r="F196" t="s">
         <v>379</v>
-      </c>
-      <c r="F196" t="s">
-        <v>380</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7641,10 +7638,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>380</v>
+      </c>
+      <c r="F197" t="s">
         <v>381</v>
-      </c>
-      <c r="F197" t="s">
-        <v>382</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7670,10 +7667,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>382</v>
+      </c>
+      <c r="F198" t="s">
         <v>383</v>
-      </c>
-      <c r="F198" t="s">
-        <v>384</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7699,10 +7696,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>384</v>
+      </c>
+      <c r="F199" t="s">
         <v>385</v>
-      </c>
-      <c r="F199" t="s">
-        <v>386</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7728,10 +7725,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>386</v>
+      </c>
+      <c r="F200" t="s">
         <v>387</v>
-      </c>
-      <c r="F200" t="s">
-        <v>388</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7757,10 +7754,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>388</v>
+      </c>
+      <c r="F201" t="s">
         <v>389</v>
-      </c>
-      <c r="F201" t="s">
-        <v>390</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7786,10 +7783,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>390</v>
+      </c>
+      <c r="F202" t="s">
         <v>391</v>
-      </c>
-      <c r="F202" t="s">
-        <v>392</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7815,10 +7812,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>392</v>
+      </c>
+      <c r="F203" t="s">
         <v>393</v>
-      </c>
-      <c r="F203" t="s">
-        <v>394</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7844,10 +7841,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>394</v>
+      </c>
+      <c r="F204" t="s">
         <v>395</v>
-      </c>
-      <c r="F204" t="s">
-        <v>396</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7873,10 +7870,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>396</v>
+      </c>
+      <c r="F205" t="s">
         <v>397</v>
-      </c>
-      <c r="F205" t="s">
-        <v>398</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7902,10 +7899,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>398</v>
+      </c>
+      <c r="F206" t="s">
         <v>399</v>
-      </c>
-      <c r="F206" t="s">
-        <v>400</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7931,10 +7928,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>400</v>
+      </c>
+      <c r="F207" t="s">
         <v>401</v>
-      </c>
-      <c r="F207" t="s">
-        <v>402</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7960,10 +7957,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>402</v>
+      </c>
+      <c r="F208" t="s">
         <v>403</v>
-      </c>
-      <c r="F208" t="s">
-        <v>404</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7989,10 +7986,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>404</v>
+      </c>
+      <c r="F209" t="s">
         <v>405</v>
-      </c>
-      <c r="F209" t="s">
-        <v>406</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8018,10 +8015,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>406</v>
+      </c>
+      <c r="F210" t="s">
         <v>407</v>
-      </c>
-      <c r="F210" t="s">
-        <v>408</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8047,10 +8044,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>408</v>
+      </c>
+      <c r="F211" t="s">
         <v>409</v>
-      </c>
-      <c r="F211" t="s">
-        <v>410</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8076,10 +8073,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>410</v>
+      </c>
+      <c r="F212" t="s">
         <v>411</v>
-      </c>
-      <c r="F212" t="s">
-        <v>412</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8105,10 +8102,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>412</v>
+      </c>
+      <c r="F213" t="s">
         <v>413</v>
-      </c>
-      <c r="F213" t="s">
-        <v>414</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8134,10 +8131,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>414</v>
+      </c>
+      <c r="F214" t="s">
         <v>415</v>
-      </c>
-      <c r="F214" t="s">
-        <v>416</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8163,10 +8160,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>416</v>
+      </c>
+      <c r="F215" t="s">
         <v>417</v>
-      </c>
-      <c r="F215" t="s">
-        <v>418</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8192,10 +8189,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>418</v>
+      </c>
+      <c r="F216" t="s">
         <v>419</v>
-      </c>
-      <c r="F216" t="s">
-        <v>420</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8221,10 +8218,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>420</v>
+      </c>
+      <c r="F217" t="s">
         <v>421</v>
-      </c>
-      <c r="F217" t="s">
-        <v>422</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8250,10 +8247,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>422</v>
+      </c>
+      <c r="F218" t="s">
         <v>423</v>
-      </c>
-      <c r="F218" t="s">
-        <v>424</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8279,10 +8276,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>424</v>
+      </c>
+      <c r="F219" t="s">
         <v>425</v>
-      </c>
-      <c r="F219" t="s">
-        <v>426</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8308,10 +8305,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>426</v>
+      </c>
+      <c r="F220" t="s">
         <v>427</v>
-      </c>
-      <c r="F220" t="s">
-        <v>428</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8337,10 +8334,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>428</v>
+      </c>
+      <c r="F221" t="s">
         <v>429</v>
-      </c>
-      <c r="F221" t="s">
-        <v>430</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8366,10 +8363,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>430</v>
+      </c>
+      <c r="F222" t="s">
         <v>431</v>
-      </c>
-      <c r="F222" t="s">
-        <v>432</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8395,10 +8392,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>432</v>
+      </c>
+      <c r="F223" t="s">
         <v>433</v>
-      </c>
-      <c r="F223" t="s">
-        <v>434</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8424,10 +8421,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>434</v>
+      </c>
+      <c r="F224" t="s">
         <v>435</v>
-      </c>
-      <c r="F224" t="s">
-        <v>436</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8453,10 +8450,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>436</v>
+      </c>
+      <c r="F225" t="s">
         <v>437</v>
-      </c>
-      <c r="F225" t="s">
-        <v>438</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8482,10 +8479,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>438</v>
+      </c>
+      <c r="F226" t="s">
         <v>439</v>
-      </c>
-      <c r="F226" t="s">
-        <v>440</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8511,10 +8508,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>440</v>
+      </c>
+      <c r="F227" t="s">
         <v>441</v>
-      </c>
-      <c r="F227" t="s">
-        <v>442</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8540,10 +8537,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>442</v>
+      </c>
+      <c r="F228" t="s">
         <v>443</v>
-      </c>
-      <c r="F228" t="s">
-        <v>444</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8569,10 +8566,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>444</v>
+      </c>
+      <c r="F229" t="s">
         <v>445</v>
-      </c>
-      <c r="F229" t="s">
-        <v>446</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8598,10 +8595,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>446</v>
+      </c>
+      <c r="F230" t="s">
         <v>447</v>
-      </c>
-      <c r="F230" t="s">
-        <v>448</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8627,10 +8624,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>280</v>
+      </c>
+      <c r="F231" t="s">
         <v>281</v>
-      </c>
-      <c r="F231" t="s">
-        <v>282</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8656,10 +8653,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>448</v>
+      </c>
+      <c r="F232" t="s">
         <v>449</v>
-      </c>
-      <c r="F232" t="s">
-        <v>450</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8685,10 +8682,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>450</v>
+      </c>
+      <c r="F233" t="s">
         <v>451</v>
-      </c>
-      <c r="F233" t="s">
-        <v>452</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8714,10 +8711,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>452</v>
+      </c>
+      <c r="F234" t="s">
         <v>453</v>
-      </c>
-      <c r="F234" t="s">
-        <v>454</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8743,10 +8740,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>454</v>
+      </c>
+      <c r="F235" t="s">
         <v>455</v>
-      </c>
-      <c r="F235" t="s">
-        <v>456</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8772,10 +8769,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>456</v>
+      </c>
+      <c r="F236" t="s">
         <v>457</v>
-      </c>
-      <c r="F236" t="s">
-        <v>458</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8801,10 +8798,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>458</v>
+      </c>
+      <c r="F237" t="s">
         <v>459</v>
-      </c>
-      <c r="F237" t="s">
-        <v>460</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8830,10 +8827,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>460</v>
+      </c>
+      <c r="F238" t="s">
         <v>461</v>
-      </c>
-      <c r="F238" t="s">
-        <v>462</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8859,10 +8856,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>462</v>
+      </c>
+      <c r="F239" t="s">
         <v>463</v>
-      </c>
-      <c r="F239" t="s">
-        <v>464</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8888,10 +8885,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>464</v>
+      </c>
+      <c r="F240" t="s">
         <v>465</v>
-      </c>
-      <c r="F240" t="s">
-        <v>466</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8917,10 +8914,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>466</v>
+      </c>
+      <c r="F241" t="s">
         <v>467</v>
-      </c>
-      <c r="F241" t="s">
-        <v>468</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8946,10 +8943,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>468</v>
+      </c>
+      <c r="F242" t="s">
         <v>469</v>
-      </c>
-      <c r="F242" t="s">
-        <v>470</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8975,10 +8972,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>470</v>
+      </c>
+      <c r="F243" t="s">
         <v>471</v>
-      </c>
-      <c r="F243" t="s">
-        <v>472</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9004,10 +9001,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>472</v>
+      </c>
+      <c r="F244" t="s">
         <v>473</v>
-      </c>
-      <c r="F244" t="s">
-        <v>474</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9033,10 +9030,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>474</v>
+      </c>
+      <c r="F245" t="s">
         <v>475</v>
-      </c>
-      <c r="F245" t="s">
-        <v>476</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9062,10 +9059,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>476</v>
+      </c>
+      <c r="F246" t="s">
         <v>477</v>
-      </c>
-      <c r="F246" t="s">
-        <v>478</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9091,10 +9088,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>478</v>
+      </c>
+      <c r="F247" t="s">
         <v>479</v>
-      </c>
-      <c r="F247" t="s">
-        <v>480</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9120,10 +9117,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>480</v>
+      </c>
+      <c r="F248" t="s">
         <v>481</v>
-      </c>
-      <c r="F248" t="s">
-        <v>482</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9149,10 +9146,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>482</v>
+      </c>
+      <c r="F249" t="s">
         <v>483</v>
-      </c>
-      <c r="F249" t="s">
-        <v>484</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9178,10 +9175,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>484</v>
+      </c>
+      <c r="F250" t="s">
         <v>485</v>
-      </c>
-      <c r="F250" t="s">
-        <v>486</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9207,10 +9204,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>486</v>
+      </c>
+      <c r="F251" t="s">
         <v>487</v>
-      </c>
-      <c r="F251" t="s">
-        <v>488</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9236,10 +9233,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>488</v>
+      </c>
+      <c r="F252" t="s">
         <v>489</v>
-      </c>
-      <c r="F252" t="s">
-        <v>490</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9265,10 +9262,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>490</v>
+      </c>
+      <c r="F253" t="s">
         <v>491</v>
-      </c>
-      <c r="F253" t="s">
-        <v>492</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9294,10 +9291,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>492</v>
+      </c>
+      <c r="F254" t="s">
         <v>493</v>
-      </c>
-      <c r="F254" t="s">
-        <v>494</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9323,10 +9320,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>494</v>
+      </c>
+      <c r="F255" t="s">
         <v>495</v>
-      </c>
-      <c r="F255" t="s">
-        <v>496</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9352,10 +9349,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>496</v>
+      </c>
+      <c r="F256" t="s">
         <v>497</v>
-      </c>
-      <c r="F256" t="s">
-        <v>498</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9381,10 +9378,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>498</v>
+      </c>
+      <c r="F257" t="s">
         <v>499</v>
-      </c>
-      <c r="F257" t="s">
-        <v>500</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9410,10 +9407,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>500</v>
+      </c>
+      <c r="F258" t="s">
         <v>501</v>
-      </c>
-      <c r="F258" t="s">
-        <v>502</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9439,10 +9436,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>502</v>
+      </c>
+      <c r="F259" t="s">
         <v>503</v>
-      </c>
-      <c r="F259" t="s">
-        <v>504</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9468,10 +9465,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>504</v>
+      </c>
+      <c r="F260" t="s">
         <v>505</v>
-      </c>
-      <c r="F260" t="s">
-        <v>506</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9497,10 +9494,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>506</v>
+      </c>
+      <c r="F261" t="s">
         <v>507</v>
-      </c>
-      <c r="F261" t="s">
-        <v>508</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9526,10 +9523,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>508</v>
+      </c>
+      <c r="F262" t="s">
         <v>509</v>
-      </c>
-      <c r="F262" t="s">
-        <v>510</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9555,10 +9552,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>510</v>
+      </c>
+      <c r="F263" t="s">
         <v>511</v>
-      </c>
-      <c r="F263" t="s">
-        <v>512</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9584,10 +9581,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>512</v>
+      </c>
+      <c r="F264" t="s">
         <v>513</v>
-      </c>
-      <c r="F264" t="s">
-        <v>514</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9613,10 +9610,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>514</v>
+      </c>
+      <c r="F265" t="s">
         <v>515</v>
-      </c>
-      <c r="F265" t="s">
-        <v>516</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9642,10 +9639,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>516</v>
+      </c>
+      <c r="F266" t="s">
         <v>517</v>
-      </c>
-      <c r="F266" t="s">
-        <v>518</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9671,10 +9668,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>518</v>
+      </c>
+      <c r="F267" t="s">
         <v>519</v>
-      </c>
-      <c r="F267" t="s">
-        <v>520</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9700,10 +9697,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>520</v>
+      </c>
+      <c r="F268" t="s">
         <v>521</v>
-      </c>
-      <c r="F268" t="s">
-        <v>522</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9729,10 +9726,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>522</v>
+      </c>
+      <c r="F269" t="s">
         <v>523</v>
-      </c>
-      <c r="F269" t="s">
-        <v>524</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
